--- a/medicine/Premiers secours et secourisme/Marin-pompier_en_France/Marin-pompier_en_France.xlsx
+++ b/medicine/Premiers secours et secourisme/Marin-pompier_en_France/Marin-pompier_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les marins-pompiers sont une unité d’élite[réf. souhaitée] de la  Marine nationale française, chargée de veiller à la sécurité des personnes, des biens et de l'environnement dans les bases navales de Toulon, Cherbourg, Brest, l’Île Longue ainsi que dans les bases de l’aéronautique navale. Avec les Sapeurs Pompiers de Paris , les Marins Pompiers de Marseille et les Pompiers de l’Air ils font partie des 5 % de pompiers militaires de France.
 Leurs missions sont principalement :
@@ -517,7 +529,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le recrutement externe se fait avec au minimum l'obtention du brevet des collèges pour un recrutement de militaire du rang . Ils doivent valider une sélection drastique , satisfaire à des conditions physiques extrêmement exigeantes , être apte médicalement , effectuer un entretien de motivation et réussir un concours sous forme de questionnaire à choix multiples (QCM) ainsi qu’un examen psychologique . 
 L'école des marins-pompiers est principalement implantée à Marseille. Une partie du reste de la formation se fait au Centre d'instruction naval de Saint-Mandrier face à Toulon.
@@ -552,7 +566,9 @@
           <t>Les marins-pompiers des bases navales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les marins-pompiers de la Marine constituent quatre compagnies et sont affectés à Cherbourg (80 personnels), Brest (120 personnels), l'île Longue (110 personnels) et Toulon (130 personnels), avec des détachements dans les bases de l'aviation navale.
 Ils ont pour mission d'assurer la sécurité des personnels et des infrastructures immobilières des arsenaux ainsi que celle des bâtiments et des aéronefs qui y sont basés.
@@ -586,7 +602,9 @@
           <t>Le bataillon de marins-pompiers de Marseille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Marseille, le Bataillon de marins-pompiers de Marseille (BMPM) est depuis 1939, le corps des pompiers municipaux. Il agit selon les ordres et les directives du maire par l’intermédiaire d'un adjoint délégué. 
 Le BMPM est « hors-budget » de la Marine nationale. Son budget (107,8 millions d'euros en 2017) est financé à 59 % par la ville de Marseille. Les 41 % restants étant à la charge du département Bouches du Rhône, de la Métropole et de l’État. 
